--- a/Assets/ArtRes/Excel/PlayerInfo.xlsx
+++ b/Assets/ArtRes/Excel/PlayerInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\Project\MiniFrame\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A4FE3-E7E4-43AC-BDA4-1AC73FC8DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B24AA-CA56-4773-ADC9-E7416D63E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerInfo" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,67 +438,67 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">

--- a/Assets/ArtRes/Excel/PlayerInfo.xlsx
+++ b/Assets/ArtRes/Excel/PlayerInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\Project\MiniFrame\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B24AA-CA56-4773-ADC9-E7416D63E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31789497-1E19-419C-9A10-34398F729BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerInfo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,6 +561,23 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
